--- a/biology/Zoologie/Centropyge_potteri/Centropyge_potteri.xlsx
+++ b/biology/Zoologie/Centropyge_potteri/Centropyge_potteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-ange nain de Potter (Centropyge potteri) est une espèce de poissons de la famille des pomacanthidés.  Elle est présente dans les récifs coralliens des eaux de l'archipel d'Hawaï et de l'atoll Johnston[1],[2] dans l'Océan Pacifique. La taille maximale pour cette espèce est de 10 cm[2],[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-ange nain de Potter (Centropyge potteri) est une espèce de poissons de la famille des pomacanthidés.  Elle est présente dans les récifs coralliens des eaux de l'archipel d'Hawaï et de l'atoll Johnston, dans l'Océan Pacifique. La taille maximale pour cette espèce est de 10 cm,.
 </t>
         </is>
       </c>
